--- a/Files/Archivo2.xlsx
+++ b/Files/Archivo2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Comparador_Excel\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DISCO LOCAL D\.FILES_UNMSM\Python\M.Discreta\Excel-comparator\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA59FF3-257B-4947-A3C9-0D450805AC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20040" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -19,66 +20,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>E-government system evaluation: The case of users’ performance using ERP systems in higher education</t>
   </si>
   <si>
+    <t>Models of research activity measurement: Web-based monitoring implementation</t>
+  </si>
+  <si>
+    <t>Integration of EFQM excellence model and information systems criterion</t>
+  </si>
+  <si>
+    <t>Improving university competitiveness by management information system</t>
+  </si>
+  <si>
+    <t>Educational management system of colleges and universities based on embedded system and artificial intelligence</t>
+  </si>
+  <si>
+    <t>Modeling of performance evaluation of educational information based on big data deep learning and cloud platform</t>
+  </si>
+  <si>
+    <t>Information system governance in moroccan universities: Case of student affairs</t>
+  </si>
+  <si>
+    <t>Information system key success factors and student behavioral intention to use m-learning</t>
+  </si>
+  <si>
+    <t>The design of the academic quality assurance management information system</t>
+  </si>
+  <si>
+    <t>Research on the influencing factors of college sports teaching based on statistical analysis</t>
+  </si>
+  <si>
+    <t>Analysis and evaluation of spanish university websites from Bologna process [Análise e avaliação de sites universitários espanhóis do processo de Bolonha]</t>
+  </si>
+  <si>
+    <t>Learning Analytics for Programme Review: Evidence, Analysis, and Action to Improve Student Learning Outcomes</t>
+  </si>
+  <si>
+    <t>Observation-Enhanced QoS Analysis of Component-Based Systems</t>
+  </si>
+  <si>
+    <t>Research on the expert system of mathematics application question teaching</t>
+  </si>
+  <si>
+    <t>HOLA</t>
+  </si>
+  <si>
     <t>Student information system satisfaction in higher education: the role of visual aesthetics</t>
   </si>
   <si>
-    <t>Models of research activity measurement: Web-based monitoring implementation</t>
-  </si>
-  <si>
-    <t>Integration of EFQM excellence model and information systems criterion</t>
-  </si>
-  <si>
-    <t>Improving university competitiveness by management information system</t>
-  </si>
-  <si>
-    <t>Educational management system of colleges and universities based on embedded system and artificial intelligence</t>
-  </si>
-  <si>
-    <t>Modeling of performance evaluation of educational information based on big data deep learning and cloud platform</t>
-  </si>
-  <si>
-    <t>Information system governance in moroccan universities: Case of student affairs</t>
-  </si>
-  <si>
-    <t>Information system key success factors and student behavioral intention to use m-learning</t>
-  </si>
-  <si>
-    <t>The design of the academic quality assurance management information system</t>
-  </si>
-  <si>
-    <t>Research on the influencing factors of college sports teaching based on statistical analysis</t>
-  </si>
-  <si>
-    <t>Analysis and evaluation of spanish university websites from Bologna process [Análise e avaliação de sites universitários espanhóis do processo de Bolonha]</t>
-  </si>
-  <si>
-    <t>Learning Analytics for Programme Review: Evidence, Analysis, and Action to Improve Student Learning Outcomes</t>
-  </si>
-  <si>
     <t>Analyzing information system needs in implementing internal quality assurance system: A study on higher vocational education in West Sumatera, Indonesia</t>
   </si>
   <si>
     <t>Toward a learning analytics system in bulgarian higher education institutions</t>
   </si>
   <si>
-    <t>Academic data warehouse design using a hybrid methodology</t>
-  </si>
-  <si>
-    <t>Observation-Enhanced QoS Analysis of Component-Based Systems</t>
-  </si>
-  <si>
-    <t>Research on the expert system of mathematics application question teaching</t>
+    <t>AcademicA data warehouse design using a hybrid methodology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -330,15 +334,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -347,7 +349,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -357,86 +359,88 @@
     </row>
     <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
     </row>
     <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
